--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>loginPageTitle</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Username or Password is invalid. Please try again.</t>
+  </si>
+  <si>
+    <t>errormsg</t>
   </si>
 </sst>
 </file>
@@ -373,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -414,12 +426,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CheckVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>loginPageTitle</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>errormsg</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -469,12 +475,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>